--- a/Test_data.xlsx
+++ b/Test_data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
     <sheet name="Loan_Payments" sheetId="2" r:id="rId2"/>
     <sheet name="Loan_Impairments" sheetId="3" r:id="rId3"/>
     <sheet name="Loans" sheetId="4" r:id="rId4"/>
+    <sheet name="Impairments" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="88">
   <si>
     <t>customer_id</t>
   </si>
@@ -282,6 +283,18 @@
   </si>
   <si>
     <t>loan_end_date</t>
+  </si>
+  <si>
+    <t>AssesmentDate</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expected credit loss </t>
+  </si>
+  <si>
+    <t>Provision amount</t>
   </si>
 </sst>
 </file>
@@ -294,7 +307,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,13 +327,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -762,149 +768,149 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,7 +1269,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1558,7 +1564,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1617,7 +1623,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="2">
-        <v>44117</v>
+        <v>44148</v>
       </c>
       <c r="D4">
         <v>800080</v>
@@ -1631,7 +1637,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="2">
-        <v>44118</v>
+        <v>44149</v>
       </c>
       <c r="D5">
         <v>1053440</v>
@@ -1645,7 +1651,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="2">
-        <v>44119</v>
+        <v>44150</v>
       </c>
       <c r="D6">
         <v>1428480</v>
@@ -1659,7 +1665,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="2">
-        <v>44120</v>
+        <v>44059</v>
       </c>
       <c r="D7">
         <v>1803520</v>
@@ -1673,7 +1679,7 @@
         <v>55</v>
       </c>
       <c r="C8" s="2">
-        <v>44121</v>
+        <v>44060</v>
       </c>
       <c r="D8">
         <v>2178560</v>
@@ -1687,7 +1693,7 @@
         <v>56</v>
       </c>
       <c r="C9" s="2">
-        <v>44122</v>
+        <v>44061</v>
       </c>
       <c r="D9">
         <v>2553600</v>
@@ -1701,7 +1707,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="2">
-        <v>44123</v>
+        <v>44093</v>
       </c>
       <c r="D10">
         <v>2928640</v>
@@ -1715,7 +1721,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="2">
-        <v>44124</v>
+        <v>44094</v>
       </c>
       <c r="D11">
         <v>3303680</v>
@@ -1729,7 +1735,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="2">
-        <v>44125</v>
+        <v>44095</v>
       </c>
       <c r="D12">
         <v>3678720</v>
@@ -1743,7 +1749,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="2">
-        <v>44126</v>
+        <v>44096</v>
       </c>
       <c r="D13">
         <v>4053760</v>
@@ -1761,7 +1767,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1838,7 +1844,7 @@
         <v>800080</v>
       </c>
       <c r="E4" s="2">
-        <v>44117</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1855,7 +1861,7 @@
         <v>1053440</v>
       </c>
       <c r="E5" s="2">
-        <v>44118</v>
+        <v>44149</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1872,7 +1878,7 @@
         <v>1428480</v>
       </c>
       <c r="E6" s="2">
-        <v>44119</v>
+        <v>44150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1889,7 +1895,7 @@
         <v>1803520</v>
       </c>
       <c r="E7" s="2">
-        <v>44120</v>
+        <v>44059</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1906,7 +1912,7 @@
         <v>2178560</v>
       </c>
       <c r="E8" s="2">
-        <v>44121</v>
+        <v>44060</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1923,7 +1929,7 @@
         <v>2553600</v>
       </c>
       <c r="E9" s="2">
-        <v>44122</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1940,7 +1946,7 @@
         <v>2928640</v>
       </c>
       <c r="E10" s="2">
-        <v>44123</v>
+        <v>44093</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1957,7 +1963,7 @@
         <v>3303680</v>
       </c>
       <c r="E11" s="2">
-        <v>44124</v>
+        <v>44094</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1974,7 +1980,7 @@
         <v>3678720</v>
       </c>
       <c r="E12" s="2">
-        <v>44125</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1991,7 +1997,7 @@
         <v>4053760</v>
       </c>
       <c r="E13" s="2">
-        <v>44126</v>
+        <v>44096</v>
       </c>
     </row>
   </sheetData>
@@ -2005,8 +2011,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2284,4 +2290,287 @@
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="19.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44115</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>43434</v>
+      </c>
+      <c r="F2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44116</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>43435</v>
+      </c>
+      <c r="F3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44148</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>43436</v>
+      </c>
+      <c r="F4">
+        <v>800080</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44149</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>43437</v>
+      </c>
+      <c r="F5">
+        <v>1053440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44150</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>43438</v>
+      </c>
+      <c r="F6">
+        <v>1428480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44059</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>43439</v>
+      </c>
+      <c r="F7">
+        <v>1803520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44060</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>43440</v>
+      </c>
+      <c r="F8">
+        <v>2178560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44061</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>43441</v>
+      </c>
+      <c r="F9">
+        <v>2553600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44093</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>43442</v>
+      </c>
+      <c r="F10">
+        <v>2928640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44094</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>43443</v>
+      </c>
+      <c r="F11">
+        <v>3303680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44095</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>43444</v>
+      </c>
+      <c r="F12">
+        <v>3678720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44096</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>43445</v>
+      </c>
+      <c r="F13">
+        <v>4053760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>